--- a/excel/academic_degree.xlsx
+++ b/excel/academic_degree.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kivlin\Desktop\毕设\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kivlin\Desktop\毕设\evaluation_background\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" firstSheet="8" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" firstSheet="20" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="basic_situation" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,18 @@
     <sheet name="teacher_basic_situation" sheetId="13" r:id="rId12"/>
     <sheet name="teacher_basic_situation_item" sheetId="14" r:id="rId13"/>
     <sheet name="academic_degree_structure" sheetId="15" r:id="rId14"/>
+    <sheet name="teacher_lv2_situation" sheetId="16" r:id="rId15"/>
+    <sheet name="academic_leader" sheetId="17" r:id="rId16"/>
+    <sheet name="academic_leader_item" sheetId="18" r:id="rId17"/>
+    <sheet name="subject_direction_mentor" sheetId="19" r:id="rId18"/>
+    <sheet name="outstanding_results" sheetId="20" r:id="rId19"/>
+    <sheet name="outstanding_scientific_research" sheetId="21" r:id="rId20"/>
+    <sheet name="course_basic" sheetId="22" r:id="rId21"/>
+    <sheet name="scientific_research" sheetId="23" r:id="rId22"/>
+    <sheet name="reward_of_scientific_research" sheetId="24" r:id="rId23"/>
+    <sheet name="scientific_research_item" sheetId="25" r:id="rId24"/>
+    <sheet name="papers" sheetId="26" r:id="rId25"/>
+    <sheet name="result_application" sheetId="27" r:id="rId26"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="240">
   <si>
     <t>pk_basic_situation</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,10 +238,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CLOB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -278,10 +286,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR2(20)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -447,6 +451,562 @@
   </si>
   <si>
     <t>ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_teacher_lv2_situation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk_discipline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number_of_senior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number_of_deputy_senior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number_of_middle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number_of_other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number_of_doctoral_advisor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number_of_master_advisor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk_general_conditions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_academic_leader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk_general_conditions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>direction_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number_of_teacher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number_of_senior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the_highest_degree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>technical_position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>part_time_jobs_at_home_and_abroad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number_of_doctor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number_of_doctor_degree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number_of_master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number_of_master_degree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_academic_leader_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk_academic_leader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_subject_direction_mentor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>direction_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_degree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>department</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>introduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLOB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_outstanding_results</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signature_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk_subject_direction_mentor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expenditure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_outstanding_scientific_research</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk_subject_direction_mentor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_course_basic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teaching_obj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_scientific_research</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk_general_conditions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number_of_national_research</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number_of_provincal_research</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expenditure_of_provincal_research</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number_of_provincial_awards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number_of_curr_research</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg_number_of_curr_research</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expenditure_of_curr_research</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg_expenditure_of_curr_research</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expenditure_of_national_research</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expenditure_of_longitudinal_research</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number_of_longitudinal_research</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg_expenditure_of_longitudinal_research</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number_of_publications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg_number_of_publications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number_of_papers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg_number_of_papers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLOB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_reward_of_scientific_research</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk_general_conditions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_scientific_research_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expenditure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk_scientific_research</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>awardee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_papers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>author</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>publish_firm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk_general_conditions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_result_application</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(100)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -870,7 +1430,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>35</v>
@@ -878,15 +1438,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
         <v>54</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
         <v>42</v>
@@ -894,23 +1454,23 @@
     </row>
     <row r="4" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -918,7 +1478,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -926,10 +1486,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -953,7 +1513,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -961,15 +1521,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>42</v>
@@ -977,23 +1537,23 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
         <v>40</v>
@@ -1001,15 +1561,15 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -1025,8 +1585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1036,7 +1596,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
         <v>35</v>
@@ -1044,7 +1604,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
@@ -1052,7 +1612,7 @@
     </row>
     <row r="3" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>42</v>
@@ -1060,10 +1620,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1095,98 +1655,98 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1207,7 +1767,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
         <v>35</v>
@@ -1215,7 +1775,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
         <v>41</v>
@@ -1223,7 +1783,7 @@
     </row>
     <row r="3" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>44</v>
@@ -1234,23 +1794,455 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1262,10 +2254,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1275,15 +2267,662 @@
     <col min="3" max="3" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>151</v>
+      </c>
       <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>205</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>207</v>
+      </c>
+      <c r="B18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>209</v>
+      </c>
+      <c r="B20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B6" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -1613,7 +3252,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1640,10 +3279,10 @@
     </row>
     <row r="3" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1656,10 +3295,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" t="s">
         <v>47</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1692,18 +3331,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
         <v>49</v>
-      </c>
-      <c r="B2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
         <v>51</v>
-      </c>
-      <c r="B3" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
